--- a/Matt_Work/Thermodynamics/comparison of resources.xlsx
+++ b/Matt_Work/Thermodynamics/comparison of resources.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="132" windowWidth="14340" windowHeight="5832"/>
+    <workbookView xWindow="390" yWindow="135" windowWidth="14340" windowHeight="5835" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Diff DBs" sheetId="1" r:id="rId1"/>
+    <sheet name="Sim v Manual" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>Eq. 1 mM</t>
   </si>
@@ -49,6 +49,21 @@
   </si>
   <si>
     <t>Error (Eq)</t>
+  </si>
+  <si>
+    <t>Flux</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>Stoich Coeff</t>
   </si>
 </sst>
 </file>
@@ -389,14 +404,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -537,12 +552,155 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>-403.1</v>
+      </c>
+      <c r="C2">
+        <v>-11.83</v>
+      </c>
+      <c r="D2">
+        <f>B2*C2/1000</f>
+        <v>4.7686730000000006</v>
+      </c>
+      <c r="F2">
+        <v>-1</v>
+      </c>
+      <c r="G2">
+        <f>F2*B2/1000</f>
+        <v>0.40310000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="C3">
+        <v>-45</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D5" si="0">B3*C3/1000</f>
+        <v>-3.6719999999999997</v>
+      </c>
+      <c r="F3">
+        <v>-4</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G6" si="1">F3*B3/1000</f>
+        <v>-0.32639999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>-157.6</v>
+      </c>
+      <c r="C4">
+        <v>23</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>-3.6247999999999996</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>-0.31519999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>110.7</v>
+      </c>
+      <c r="C5">
+        <v>10.68</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>1.1822760000000001</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0.11070000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ref="B7" si="2">B5+B4-B3-B2</f>
+        <v>274.60000000000002</v>
+      </c>
+      <c r="D7">
+        <f>SUM(D2:D5)</f>
+        <v>-1.3458509999999986</v>
+      </c>
+      <c r="G7">
+        <f>SUM(G2:G5)</f>
+        <v>-0.12779999999999991</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <f>0.000008314*310*LN(1)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -553,7 +711,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
